--- a/DATA/Protest is SA   SAS rules V2.xlsx
+++ b/DATA/Protest is SA   SAS rules V2.xlsx
@@ -2003,11 +2003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198427008"/>
-        <c:axId val="198428928"/>
+        <c:axId val="201298304"/>
+        <c:axId val="201300224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198427008"/>
+        <c:axId val="201298304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198428928"/>
+        <c:crossAx val="201300224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2060,7 +2060,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198428928"/>
+        <c:axId val="201300224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +2128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198427008"/>
+        <c:crossAx val="201298304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2355,11 +2355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198909312"/>
-        <c:axId val="198915584"/>
+        <c:axId val="201526656"/>
+        <c:axId val="201532928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198909312"/>
+        <c:axId val="201526656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198915584"/>
+        <c:crossAx val="201532928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2420,7 +2420,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198915584"/>
+        <c:axId val="201532928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198909312"/>
+        <c:crossAx val="201526656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2729,11 +2729,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198978176"/>
-        <c:axId val="199009024"/>
+        <c:axId val="201587328"/>
+        <c:axId val="201622272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198978176"/>
+        <c:axId val="201587328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199009024"/>
+        <c:crossAx val="201622272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2794,7 +2794,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199009024"/>
+        <c:axId val="201622272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198978176"/>
+        <c:crossAx val="201587328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3304,11 +3304,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="198804224"/>
-        <c:axId val="198806144"/>
+        <c:axId val="202070656"/>
+        <c:axId val="202076928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198804224"/>
+        <c:axId val="202070656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3361,7 +3361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198806144"/>
+        <c:crossAx val="202076928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3369,7 +3369,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198806144"/>
+        <c:axId val="202076928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,7 +3445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198804224"/>
+        <c:crossAx val="202070656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3496,7 +3496,7 @@
         <xdr:cNvPr id="2" name="Chart 1" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3532,7 @@
         <xdr:cNvPr id="2" name="Chart 2" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3568,7 +3568,7 @@
         <xdr:cNvPr id="3" name="Chart 3" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3604,7 @@
         <xdr:cNvPr id="4" name="Chart 4" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3640,7 +3640,7 @@
         <xdr:cNvPr id="5" name="Chart 5" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3950,7 +3950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3964,8 +3964,8 @@
   </sheetPr>
   <dimension ref="A1:E987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
